--- a/marital.xlsx
+++ b/marital.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_count</t>
+          <t>FALSE_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>anaemia_percent</t>
+          <t>FALSE_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_count</t>
+          <t>TRUE_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>no anaemia_percent</t>
+          <t>TRUE_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>43.83561643835616</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>63.1578947368421</v>
+        <v>44.5945945945946</v>
       </c>
       <c r="F2">
         <v>23</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>38.88888888888889</v>
+      </c>
+      <c r="D3">
         <v>37</v>
       </c>
-      <c r="C3">
-        <v>50.68493150684932</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>36.84210526315789</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -445,11 +445,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4">
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>5.47945205479452</v>
+      <c r="E4">
+        <v>5.405405405405405</v>
       </c>
       <c r="F4">
         <v>6</v>

--- a/marital.xlsx
+++ b/marital.xlsx
@@ -365,22 +365,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_count</t>
+          <t>anaemia_count</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FALSE_percent</t>
+          <t>anaemia_percent</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_count</t>
+          <t>no anaemia_count</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>TRUE_percent</t>
+          <t>no anaemia_percent</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -401,16 +401,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C2">
-        <v>61.11111111111111</v>
+        <v>43.83561643835616</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>44.5945945945946</v>
+        <v>63.1578947368421</v>
       </c>
       <c r="F2">
         <v>23</v>
@@ -426,16 +426,16 @@
         </is>
       </c>
       <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>50.68493150684932</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>38.88888888888889</v>
-      </c>
-      <c r="D3">
-        <v>37</v>
-      </c>
       <c r="E3">
-        <v>50</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -445,11 +445,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="D4">
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="E4">
-        <v>5.405405405405405</v>
+      <c r="C4">
+        <v>5.47945205479452</v>
       </c>
       <c r="F4">
         <v>6</v>
